--- a/statement.xlsx
+++ b/statement.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Account NO</t>
   </si>
@@ -32,19 +32,7 @@
     <t>Account Balance</t>
   </si>
   <si>
-    <t>2021-07-23</t>
-  </si>
-  <si>
-    <t>2021-07-26</t>
-  </si>
-  <si>
-    <t>2021-07-27</t>
-  </si>
-  <si>
-    <t>2021-07-31</t>
-  </si>
-  <si>
-    <t>2021-08-03</t>
+    <t>2021-09-26</t>
   </si>
 </sst>
 </file>
@@ -89,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -117,242 +105,122 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1442.0</v>
+        <v>7030.0</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>12.0</v>
+        <v>107.0</v>
       </c>
       <c r="D2" t="n">
-        <v>50.0</v>
+        <v>5409.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
       </c>
       <c r="F2" t="n">
-        <v>50250.0</v>
+        <v>8941881.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1442.0</v>
+        <v>7030.0</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>13.0</v>
+        <v>108.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>598476.0</v>
       </c>
       <c r="E3" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="F3" t="n">
-        <v>50230.0</v>
+        <v>9540357.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1442.0</v>
+        <v>7030.0</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>26.0</v>
+        <v>109.0</v>
       </c>
       <c r="D4" t="n">
-        <v>51.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0</v>
+        <v>9878.0</v>
       </c>
       <c r="F4" t="n">
-        <v>50281.0</v>
+        <v>9530479.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1442.0</v>
+        <v>7030.0</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>27.0</v>
+        <v>110.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>23.0</v>
+        <v>43579.0</v>
       </c>
       <c r="F5" t="n">
-        <v>50258.0</v>
+        <v>9486900.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1442.0</v>
+        <v>7030.0</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>28.0</v>
+        <v>111.0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0</v>
+        <v>6756.0</v>
       </c>
       <c r="E6" t="n">
-        <v>50258.0</v>
+        <v>0.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0</v>
+        <v>9493656.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1442.0</v>
+        <v>7030.0</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>29.0</v>
+        <v>112.0</v>
       </c>
       <c r="D7" t="n">
-        <v>23900.0</v>
+        <v>0.0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0</v>
+        <v>654.0</v>
       </c>
       <c r="F7" t="n">
-        <v>23900.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1442.0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>24000.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1442.0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>24100.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1442.0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>24200.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1442.0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>24180.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1442.0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>24160.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1442.0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>160.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>24320.0</v>
+        <v>9493002.0</v>
       </c>
     </row>
   </sheetData>
